--- a/haiti_school_feeding_dashboard/Haiti_School_Feeding_Dashboard.xlsx
+++ b/haiti_school_feeding_dashboard/Haiti_School_Feeding_Dashboard.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Attendance Analysis" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feeding Rate Analysis" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="School Detail" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Supervisor Performance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Attendance Analysis" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Feeding Rate Analysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="School Detail" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Supervisor Performance" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -204,14 +204,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -235,7 +235,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -287,14 +287,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -317,14 +317,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -376,14 +376,14 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -406,14 +406,14 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ln>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
@@ -465,13 +465,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -494,7 +494,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -522,14 +522,14 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -553,7 +553,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -577,7 +577,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -629,14 +629,14 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -660,7 +660,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -712,14 +712,14 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="10"/>
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -743,7 +743,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>9</col>
@@ -810,9 +810,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -832,9 +832,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -844,7 +844,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>4</col>
@@ -859,9 +859,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -881,9 +881,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>6</col>
@@ -908,9 +908,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -930,9 +930,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>7</col>
@@ -957,9 +957,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1925,7 +1925,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lascahobas</t>
+          <t>Mirebalais</t>
         </is>
       </c>
       <c r="C32" s="6" t="n">
@@ -1939,7 +1939,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Thomonde</t>
+          <t>Lascahobas</t>
         </is>
       </c>
       <c r="C33" s="6" t="n">
@@ -1981,7 +1981,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mirebalais</t>
+          <t>Thomonde</t>
         </is>
       </c>
       <c r="C36" s="6" t="n">
@@ -1995,7 +1995,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lascahobas</t>
+          <t>Mirebalais</t>
         </is>
       </c>
       <c r="C37" s="6" t="n">
@@ -2037,7 +2037,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mirebalais</t>
+          <t>Lascahobas</t>
         </is>
       </c>
       <c r="C40" s="6" t="n">
